--- a/cred_dat.xlsx
+++ b/cred_dat.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1226</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -431,7 +434,7 @@
   <dimension ref="A1:O1226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
